--- a/PESO/Importaciones por Lugar de Salida 2016 - Mensual - Editado.xlsx
+++ b/PESO/Importaciones por Lugar de Salida 2016 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Importaciones\Peso\2016\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4CC8421-458A-4827-8B72-F5EE1AECB0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC1EF2E-DCCF-44F0-899D-1AEA8CAD1286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImpoLugarIngre Peso" sheetId="2" r:id="rId1"/>
@@ -364,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -405,11 +405,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -428,15 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,11 +537,387 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -465,6 +928,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B274F17-90D6-4DDA-B0E9-4277887BDB50}" name="imp_salida_2016" displayName="imp_salida_2016" ref="A1:M61" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:M61" xr:uid="{CDC7B8E6-6E2F-43AC-974F-C9446AAB3995}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{6AA74CD2-7C3A-4C9C-A1EC-30A786162809}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A1E97F33-F1BB-4076-A6BC-9762D4FB137F}" name="Enero - 2016" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{03B4387C-4C69-4FAA-9A90-5FB812E5A3FD}" name="Febrero - 2016" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{7F5E271E-08C1-4140-9AB8-37026F030C79}" name="Marzo - 2016" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{63318388-33EF-4A2D-ACBA-2D7B85500CDF}" name="Abril - 2016" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{BD31CD98-C847-4161-BA68-628D9CD785AA}" name="Mayo - 2016" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{518F7024-008A-484B-BF36-1DE46F619495}" name="Junio - 2016" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{41D794E9-FCE1-4DA8-B131-40CD2AA3FCE8}" name="Julio - 2016" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{E58F55FB-0D93-4CD7-8014-ECDF3C0B5FE1}" name="Agosto - 2016" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{34F7747B-D9F7-4357-B9D9-7F27D33B00BC}" name="Septiembre - 2016" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{0423824D-579D-4A49-A1B4-1736DF38F28E}" name="Octubre - 2016" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{407DAA95-85E1-4ADF-9A49-D4F323F948D6}" name="Noviembre - 2016" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{D69F4AD2-2C88-4B21-B2A9-8D57624EED7E}" name="Diciembre - 2016" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,42 +1238,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -832,7 +1317,7 @@
       <c r="N4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="21"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -3538,2522 +4023,2525 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.33203125" style="2" customWidth="1"/>
     <col min="2" max="9" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="2" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
         <v>0.2</v>
       </c>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17">
-        <v>0</v>
-      </c>
-      <c r="K2" s="17">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17">
-        <v>0</v>
-      </c>
-      <c r="M2" s="17">
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="12">
         <v>7858698.1999999983</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>8308754.5899999999</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="12">
         <v>9348789.2700000033</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="12">
         <v>9107819.8000000026</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <v>8804174.6800000016</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="12">
         <v>9041574.1699999999</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="12">
         <v>8491998.3999999966</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="12">
         <v>9901217.0399999991</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <v>9860967.890000008</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <v>9033027.8899999969</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <v>11340982.239999996</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="18">
         <v>11249156.639999999</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
         <v>20</v>
       </c>
-      <c r="H4" s="17">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
         <v>1895.6399999999999</v>
       </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="17">
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="12">
         <v>4191.13</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>2764.6200000000003</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="12">
         <v>9517.1</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="12">
         <v>9019.5</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="12">
         <v>6785.2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="12">
         <v>8347.16</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="12">
         <v>6848.6</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="12">
         <v>43756.800000000003</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="12">
         <v>6048.3</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="12">
         <v>4810.5</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="12">
         <v>987.4</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="18">
         <v>3603.6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="12">
         <v>1707.8</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="12">
         <v>279.5</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="12">
         <v>818.4</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="12">
         <v>356.06</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="12">
         <v>320.88</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="12">
         <v>361.45000000000005</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="12">
         <v>1517.6</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="12">
         <v>3538.4</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="12">
         <v>448.68</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="12">
         <v>443.1</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="12">
         <v>162120</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="18">
         <v>2576.1499999999996</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="12">
         <v>14</v>
       </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
         <v>6.67</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="12">
         <v>3.3</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <v>842.12</v>
       </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
         <v>16.170000000000002</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="12">
         <v>177.04</v>
       </c>
-      <c r="K7" s="17">
-        <v>0</v>
-      </c>
-      <c r="L7" s="17">
-        <v>0</v>
-      </c>
-      <c r="M7" s="17">
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="12">
         <v>68924036.539999992</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="12">
         <v>45333537.450000003</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="12">
         <v>55432942.619999997</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <v>77862938.700000003</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="12">
         <v>57067993.050000004</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="12">
         <v>57651424.800000004</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="12">
         <v>39048562.599999994</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="12">
         <v>43364907.5</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="12">
         <v>69855293.670000002</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="12">
         <v>86081797.100000009</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="12">
         <v>65238966.29999999</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="18">
         <v>85951864.620000049</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="12">
         <v>22900736.25</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="12">
         <v>18211640.580000002</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="12">
         <v>26464992.150000006</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="12">
         <v>22316577.020000003</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="12">
         <v>20747306.810000002</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="12">
         <v>18476964.580000002</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="12">
         <v>28831592.530000001</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="12">
         <v>38895004.990000002</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="12">
         <v>24862243.779999997</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="12">
         <v>28113492.590000004</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="12">
         <v>31503283.960000001</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="18">
         <v>30627141.93</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
         <v>227.44</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="12">
         <v>2032.8</v>
       </c>
-      <c r="J10" s="17">
-        <v>0</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0</v>
-      </c>
-      <c r="L10" s="17">
-        <v>0</v>
-      </c>
-      <c r="M10" s="17">
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
         <v>4000</v>
       </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17">
-        <v>0</v>
-      </c>
-      <c r="L11" s="17">
-        <v>0</v>
-      </c>
-      <c r="M11" s="17">
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="18">
         <v>14175</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="12">
         <v>46200000</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="12">
         <v>41936000</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="12">
         <v>31224210.48</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="12">
         <v>6180733.8799999999</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="12">
         <v>58034010.640000001</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="12">
         <v>16798330.890000001</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="12">
         <v>13139436.109999999</v>
       </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
         <v>45853000</v>
       </c>
-      <c r="K12" s="17">
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
         <v>46200000</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="12">
         <v>12461228.720000001</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="12">
         <v>29366556.25</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="12">
         <v>29246352.52</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="12">
         <v>9395304.2400000002</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="12">
         <v>25116537.870000001</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="12">
         <v>25940536.25</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="12">
         <v>18046940.93</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="12">
         <v>22855742.16</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="12">
         <v>23682286.030000001</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="12">
         <v>21612378.639999997</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="12">
         <v>19869376.990000002</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="18">
         <v>29438652.18</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="12">
         <v>2154829.98</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="12">
         <v>2572745.3199999998</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="12">
         <v>1871968.03</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="12">
         <v>1338924.04</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="12">
         <v>2093587.08</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="12">
         <v>2444533.54</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="12">
         <v>2885325.57</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="12">
         <v>1981070.4500000002</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="12">
         <v>2144641.48</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="12">
         <v>2803566.87</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="12">
         <v>2786466.81</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="18">
         <v>2443633.88</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="12">
         <v>275336</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="12">
         <v>273411</v>
       </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
         <v>273546</v>
       </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
         <v>2580</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="12">
         <v>45720</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="12">
         <v>1500</v>
       </c>
-      <c r="K15" s="17">
-        <v>0</v>
-      </c>
-      <c r="L15" s="17">
-        <v>0</v>
-      </c>
-      <c r="M15" s="17">
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
         <v>1535.24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="12">
         <v>218152.53</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="12">
         <v>35683.54</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="12">
         <v>270888.37</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="12">
         <v>203508.04</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="12">
         <v>61099.8</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="12">
         <v>83523.600000000006</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="12">
         <v>73739</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="12">
         <v>4783.6000000000004</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="12">
         <v>48306.5</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="12">
         <v>3110730</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="12">
         <v>1649300</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="18">
         <v>108593.9</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="12">
         <v>12126333.66</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="12">
         <v>11620001.34</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="12">
         <v>4961757</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="12">
         <v>15430669</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="12">
         <v>18554974</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="12">
         <v>3223657.84</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="12">
         <v>25540451.800000001</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="12">
         <v>13130941.359999999</v>
       </c>
-      <c r="J17" s="17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="17">
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
         <v>32004769.84</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="12">
         <v>16844468</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="18">
         <v>34421038</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="17">
-        <v>0</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
         <v>30240</v>
       </c>
-      <c r="D18" s="17">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
         <v>3200</v>
       </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="17">
-        <v>0</v>
-      </c>
-      <c r="L18" s="17">
-        <v>0</v>
-      </c>
-      <c r="M18" s="17">
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="12">
         <v>48701</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="12">
         <v>86483.040000000008</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="12">
         <v>33962</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="12">
         <v>1061179</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="12">
         <v>92996</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="12">
         <v>20060</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="12">
         <v>20440</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="12">
         <v>74151</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="12">
         <v>60300</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="12">
         <v>27783.88</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="12">
         <v>23962</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="17">
-        <v>0</v>
-      </c>
-      <c r="C20" s="17">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
         <v>139880</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="12">
         <v>168000</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="12">
         <v>334760</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="12">
         <v>301320</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="12">
         <v>377880</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="12">
         <v>110554</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="12">
         <v>215620</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="18">
         <v>54000</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="12">
         <v>334548.57</v>
       </c>
-      <c r="C21" s="17">
-        <v>0</v>
-      </c>
-      <c r="D21" s="17">
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
         <v>1520</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="12">
         <v>34262840</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="12">
         <v>3960588</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="12">
         <v>13018650</v>
       </c>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
         <v>15589970</v>
       </c>
-      <c r="K21" s="17">
-        <v>0</v>
-      </c>
-      <c r="L21" s="17">
-        <v>0</v>
-      </c>
-      <c r="M21" s="17">
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18">
         <v>18830422.82</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="12">
         <v>139240330.75000003</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="12">
         <v>191373145.29000002</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="12">
         <v>284466392.06999999</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="12">
         <v>298886825.90000004</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="12">
         <v>172019442.97999996</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="12">
         <v>284993645.16000003</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="12">
         <v>312248384.72999996</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="12">
         <v>269512653.06999999</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="12">
         <v>209543167.05000001</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="12">
         <v>294057011.06999999</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="12">
         <v>346196947.99999994</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="18">
         <v>180493707.56</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="17">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
-        <v>0</v>
-      </c>
-      <c r="K23" s="17">
-        <v>0</v>
-      </c>
-      <c r="L23" s="17">
-        <v>0</v>
-      </c>
-      <c r="M23" s="17">
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="18">
         <v>4.2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="17">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
         <v>56000</v>
       </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
         <v>24348.63</v>
       </c>
-      <c r="K24" s="17">
-        <v>0</v>
-      </c>
-      <c r="L24" s="17">
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
         <v>300</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="17">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17">
-        <v>0</v>
-      </c>
-      <c r="K25" s="17">
-        <v>0</v>
-      </c>
-      <c r="L25" s="17">
-        <v>0</v>
-      </c>
-      <c r="M25" s="17">
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="18">
         <v>116000</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="12">
         <v>3385577.43</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="12">
         <v>1655753</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="12">
         <v>5606567.3899999997</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="12">
         <v>3502029.96</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="12">
         <v>2177158.7200000002</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="12">
         <v>4450363.28</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="12">
         <v>3440674</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="12">
         <v>2519800</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="12">
         <v>3373871.72</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="12">
         <v>1722481.28</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="12">
         <v>4966141</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="18">
         <v>1866967.18</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="17">
-        <v>0</v>
-      </c>
-      <c r="C27" s="17">
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
         <v>1382.4</v>
       </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17">
-        <v>0</v>
-      </c>
-      <c r="K27" s="17">
-        <v>0</v>
-      </c>
-      <c r="L27" s="17">
-        <v>0</v>
-      </c>
-      <c r="M27" s="17">
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="12">
         <v>126510883</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="12">
         <v>85282531</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="12">
         <v>193664200</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="12">
         <v>132328234</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="12">
         <v>67871490.299999997</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="12">
         <v>130011539.92</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="12">
         <v>131531712.8</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="12">
         <v>124217877.31999999</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="12">
         <v>77820000</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="12">
         <v>114741700</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="12">
         <v>116022652.7</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="18">
         <v>114024531.59999999</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="12">
         <v>930820</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="12">
         <v>695680</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="12">
         <v>572000</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="12">
         <v>290730</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="12">
         <v>234920</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="12">
         <v>174580</v>
       </c>
-      <c r="H29" s="17">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
         <v>55580</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="12">
         <v>568400</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="12">
         <v>461000</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="12">
         <v>410000</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="18">
         <v>452220</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="17">
-        <v>0</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-      <c r="K30" s="17">
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
         <v>122</v>
       </c>
-      <c r="L30" s="17">
-        <v>0</v>
-      </c>
-      <c r="M30" s="17">
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+      <c r="M30" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="12">
         <v>12339656.98</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="12">
         <v>8449881.0800000001</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="12">
         <v>13862620.220000001</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="12">
         <v>12223521.16</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="12">
         <v>14603599.119999997</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="12">
         <v>17333637.009999998</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="12">
         <v>15764531.960000001</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="12">
         <v>13021535.399999999</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="12">
         <v>11915057.860000001</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="12">
         <v>13690495.41</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="12">
         <v>11003282.829999994</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="18">
         <v>16324232.079999998</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="12">
         <v>230.2</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="12">
         <v>6124</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="12">
         <v>2505</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="12">
         <v>8274</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="12">
         <v>2553</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="12">
         <v>1084</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="12">
         <v>2016</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="12">
         <v>5632</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="12">
         <v>2673</v>
       </c>
-      <c r="K32" s="17">
-        <v>0</v>
-      </c>
-      <c r="L32" s="17">
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
         <v>2948.5</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="18">
         <v>13518</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="17">
-        <v>0</v>
-      </c>
-      <c r="C33" s="17">
-        <v>0</v>
-      </c>
-      <c r="D33" s="17">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="17">
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
         <v>7000</v>
       </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0</v>
-      </c>
-      <c r="K33" s="17">
-        <v>0</v>
-      </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
-      <c r="M33" s="17">
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+      <c r="M33" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="12">
         <v>79559811.379999995</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="12">
         <v>42007054.960000001</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="12">
         <v>66777324.780000001</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="12">
         <v>54881457.590000004</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="12">
         <v>38901220.030000001</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="12">
         <v>53416303.689999998</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="12">
         <v>62172554.950000003</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="12">
         <v>66911381.899999999</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="12">
         <v>110985386.81</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="12">
         <v>68967149.779999986</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="12">
         <v>25601054.499999996</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="18">
         <v>31024667.029999997</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="12">
         <v>3560794.26</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="12">
         <v>4104528.3899999997</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="12">
         <v>1938751.92</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="12">
         <v>1254998.6400000001</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="12">
         <v>2570351.0499999998</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="12">
         <v>1543889.28</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="12">
         <v>1732975.8900000001</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="12">
         <v>1693824.0699999998</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="12">
         <v>2275821.2400000002</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="12">
         <v>1792146.23</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="12">
         <v>2114238.4899999998</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="18">
         <v>2921466.8499999996</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="17">
-        <v>0</v>
-      </c>
-      <c r="C36" s="17">
-        <v>0</v>
-      </c>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17">
-        <v>0</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0</v>
-      </c>
-      <c r="H36" s="17">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17">
-        <v>0</v>
-      </c>
-      <c r="J36" s="17">
+      <c r="B36" s="12">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
         <v>8586</v>
       </c>
-      <c r="K36" s="17">
-        <v>0</v>
-      </c>
-      <c r="L36" s="17">
-        <v>0</v>
-      </c>
-      <c r="M36" s="17">
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="17">
-        <v>0</v>
-      </c>
-      <c r="C37" s="17">
-        <v>0</v>
-      </c>
-      <c r="D37" s="17">
+      <c r="B37" s="12">
+        <v>0</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12">
         <v>13.84</v>
       </c>
-      <c r="E37" s="17">
-        <v>0</v>
-      </c>
-      <c r="F37" s="17">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17">
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
         <v>8</v>
       </c>
-      <c r="H37" s="17">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0</v>
-      </c>
-      <c r="K37" s="17">
-        <v>0</v>
-      </c>
-      <c r="L37" s="17">
-        <v>0</v>
-      </c>
-      <c r="M37" s="17">
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0</v>
+      </c>
+      <c r="M37" s="18">
         <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="12">
         <v>470070525.28000003</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="12">
         <v>470920896.39000005</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="12">
         <v>452177725.86999995</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="12">
         <v>537694323.08000004</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="12">
         <v>717404814.48000002</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="12">
         <v>496728397.73000002</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="12">
         <v>507680666.77000004</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="12">
         <v>403219277.01999998</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="12">
         <v>691272518.6500001</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="12">
         <v>340641317.71000004</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="12">
         <v>473118639.5</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="18">
         <v>603137864.33999991</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="12">
         <v>13425775</v>
       </c>
-      <c r="C39" s="17">
-        <v>0</v>
-      </c>
-      <c r="D39" s="17">
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12">
         <v>23920482</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="12">
         <v>14998175</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="12">
         <v>13446885</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="12">
         <v>13443901</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="12">
         <v>13473984</v>
       </c>
-      <c r="I39" s="17">
-        <v>0</v>
-      </c>
-      <c r="J39" s="17">
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
         <v>28195472.899999999</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="12">
         <v>11407712.1</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="12">
         <v>12500000</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="18">
         <v>47432258</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="12">
         <v>59500</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="12">
         <v>198180</v>
       </c>
-      <c r="D40" s="17">
-        <v>0</v>
-      </c>
-      <c r="E40" s="17">
-        <v>0</v>
-      </c>
-      <c r="F40" s="17">
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
         <v>28720</v>
       </c>
-      <c r="G40" s="17">
-        <v>0</v>
-      </c>
-      <c r="H40" s="17">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17">
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
         <v>28980</v>
       </c>
-      <c r="J40" s="17">
-        <v>0</v>
-      </c>
-      <c r="K40" s="17">
-        <v>0</v>
-      </c>
-      <c r="L40" s="17">
-        <v>0</v>
-      </c>
-      <c r="M40" s="17">
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+      <c r="M40" s="18">
         <v>111000</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="12">
         <v>58880</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="12">
         <v>85480</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="12">
         <v>58020</v>
       </c>
-      <c r="E41" s="17">
-        <v>0</v>
-      </c>
-      <c r="F41" s="17">
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
         <v>28620</v>
       </c>
-      <c r="G41" s="17">
-        <v>0</v>
-      </c>
-      <c r="H41" s="17">
-        <v>0</v>
-      </c>
-      <c r="I41" s="17">
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
         <v>140180</v>
       </c>
-      <c r="J41" s="17">
-        <v>0</v>
-      </c>
-      <c r="K41" s="17">
-        <v>0</v>
-      </c>
-      <c r="L41" s="17">
-        <v>0</v>
-      </c>
-      <c r="M41" s="17">
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
+      <c r="M41" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="12">
         <v>4454.2700000000004</v>
       </c>
-      <c r="C42" s="17">
-        <v>0</v>
-      </c>
-      <c r="D42" s="17">
-        <v>0</v>
-      </c>
-      <c r="E42" s="17">
-        <v>0</v>
-      </c>
-      <c r="F42" s="17">
-        <v>0</v>
-      </c>
-      <c r="G42" s="17">
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
         <v>22450</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="12">
         <v>18661</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="12">
         <v>316869</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="12">
         <v>229378.35</v>
       </c>
-      <c r="K42" s="17">
-        <v>0</v>
-      </c>
-      <c r="L42" s="17">
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+      <c r="L42" s="12">
         <v>2680</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="12">
         <v>7253623.8799999999</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="12">
         <v>4315092.3</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="12">
         <v>7338876.5</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="12">
         <v>5751932.96</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="12">
         <v>3337150.63</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="12">
         <v>3380954.76</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="12">
         <v>2698407.26</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="12">
         <v>3480322.7600000002</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="12">
         <v>4068276.5100000002</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="12">
         <v>3031108.91</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="12">
         <v>3776826.17</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="18">
         <v>3044148.16</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="17">
-        <v>0</v>
-      </c>
-      <c r="C44" s="17">
-        <v>0</v>
-      </c>
-      <c r="D44" s="17">
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12">
         <v>59078000</v>
       </c>
-      <c r="E44" s="17">
-        <v>0</v>
-      </c>
-      <c r="F44" s="17">
-        <v>0</v>
-      </c>
-      <c r="G44" s="17">
-        <v>0</v>
-      </c>
-      <c r="H44" s="17">
-        <v>0</v>
-      </c>
-      <c r="I44" s="17">
-        <v>0</v>
-      </c>
-      <c r="J44" s="17">
-        <v>0</v>
-      </c>
-      <c r="K44" s="17">
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+      <c r="K44" s="12">
         <v>18428030</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="12">
         <v>2688580</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="12">
         <v>56097060</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="12">
         <v>8528000</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="12">
         <v>34421360</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="12">
         <v>8935000</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="12">
         <v>31628616</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="12">
         <v>13218384</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="12">
         <v>19251000</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="12">
         <v>32932028</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="12">
         <v>5284401</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="12">
         <v>20748271</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="12">
         <v>14603669</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="12">
         <v>27366295.41</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="12">
         <v>29773700.859999999</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="12">
         <v>30808091.039999999</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="12">
         <v>33029458.629999999</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="12">
         <v>22655319.310000002</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="12">
         <v>18575440.640000001</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="12">
         <v>13655842.610000001</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="12">
         <v>18958961.420000002</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="12">
         <v>26784966.09</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="12">
         <v>28211454.419999998</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="12">
         <v>27957142.509999998</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="18">
         <v>33442616.5</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="12">
         <v>120181908.89999998</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="12">
         <v>97414266.890000015</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="12">
         <v>257450413.17999998</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="12">
         <v>162619483.93000001</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="12">
         <v>68331035.650000006</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="12">
         <v>123039659.41999999</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="12">
         <v>195703240.11000007</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="12">
         <v>173866819.07000002</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="12">
         <v>234426951.70000002</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="12">
         <v>206493316.64999998</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="12">
         <v>237927630.28</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="18">
         <v>184732275.33999997</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="12">
         <v>5985177.5</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="12">
         <v>43963450</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="12">
         <v>43674898.700000003</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="12">
         <v>26277187</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="12">
         <v>33401354.5</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="12">
         <v>39551770.5</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="12">
         <v>60315088</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="12">
         <v>52648309.5</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="12">
         <v>52987507</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="12">
         <v>44603030</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="12">
         <v>23196263.300000001</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="18">
         <v>50476717.200000003</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="17">
-        <v>0</v>
-      </c>
-      <c r="C49" s="17">
-        <v>0</v>
-      </c>
-      <c r="D49" s="17">
-        <v>0</v>
-      </c>
-      <c r="E49" s="17">
-        <v>0</v>
-      </c>
-      <c r="F49" s="17">
-        <v>0</v>
-      </c>
-      <c r="G49" s="17">
+      <c r="B49" s="12">
+        <v>0</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12">
         <v>69000</v>
       </c>
-      <c r="H49" s="17">
-        <v>0</v>
-      </c>
-      <c r="I49" s="17">
-        <v>0</v>
-      </c>
-      <c r="J49" s="17">
-        <v>0</v>
-      </c>
-      <c r="K49" s="17">
-        <v>0</v>
-      </c>
-      <c r="L49" s="17">
-        <v>0</v>
-      </c>
-      <c r="M49" s="17">
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>0</v>
+      </c>
+      <c r="K49" s="12">
+        <v>0</v>
+      </c>
+      <c r="L49" s="12">
+        <v>0</v>
+      </c>
+      <c r="M49" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="12">
         <v>542671.5</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="12">
         <v>454633.53</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="12">
         <v>629588.11</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="12">
         <v>382956.66000000003</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="12">
         <v>21848404.399999999</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="12">
         <v>808983.61</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="12">
         <v>1011271.79</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="12">
         <v>520975.63</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="12">
         <v>741918.42</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="12">
         <v>755162.48</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="12">
         <v>154522.82999999999</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="18">
         <v>135439.16</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="12">
         <v>870256634.49000001</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="12">
         <v>626962676.02999997</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="12">
         <v>840009531.95000005</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="12">
         <v>783144315.53999996</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="12">
         <v>669164548.96000004</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="12">
         <v>743794111.33999991</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="12">
         <v>817496526.34000003</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="12">
         <v>941026467.13</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="12">
         <v>903873177.37</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="12">
         <v>793006254.95000005</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="12">
         <v>577258117.74000001</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="18">
         <v>731542757.12999988</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="12">
         <v>659974751.93999994</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="12">
         <v>781990457.01999998</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="12">
         <v>724186732.59000027</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="12">
         <v>629862162.55000019</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="12">
         <v>705368126.34000003</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="12">
         <v>765453164.95000029</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="12">
         <v>757226066.20999992</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="12">
         <v>1051378930.99</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="12">
         <v>739071209.23999965</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="12">
         <v>856598657.6099999</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="12">
         <v>779701566.68000042</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="18">
         <v>789409443.71000004</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="12">
         <v>2285.7800000000002</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="12">
         <v>97280</v>
       </c>
-      <c r="D53" s="17">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17">
-        <v>0</v>
-      </c>
-      <c r="F53" s="17">
-        <v>0</v>
-      </c>
-      <c r="G53" s="17">
-        <v>0</v>
-      </c>
-      <c r="H53" s="17">
-        <v>0</v>
-      </c>
-      <c r="I53" s="17">
-        <v>0</v>
-      </c>
-      <c r="J53" s="17">
-        <v>0</v>
-      </c>
-      <c r="K53" s="17">
-        <v>0</v>
-      </c>
-      <c r="L53" s="17">
-        <v>0</v>
-      </c>
-      <c r="M53" s="17">
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+      <c r="K53" s="12">
+        <v>0</v>
+      </c>
+      <c r="L53" s="12">
+        <v>0</v>
+      </c>
+      <c r="M53" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="12">
         <v>8480</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="12">
         <v>28112</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="12">
         <v>28112</v>
       </c>
-      <c r="E54" s="17">
-        <v>0</v>
-      </c>
-      <c r="F54" s="17">
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12">
         <v>56224</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="12">
         <v>28112</v>
       </c>
-      <c r="H54" s="17">
-        <v>0</v>
-      </c>
-      <c r="I54" s="17">
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
         <v>90360</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="12">
         <v>240960</v>
       </c>
-      <c r="K54" s="17">
-        <v>0</v>
-      </c>
-      <c r="L54" s="17">
+      <c r="K54" s="12">
+        <v>0</v>
+      </c>
+      <c r="L54" s="12">
         <v>90360</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="12">
         <v>618458423.58000004</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="12">
         <v>368659670.2899999</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="12">
         <v>726482668.17000008</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="12">
         <v>518877470.06000006</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="12">
         <v>774477901.27999997</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="12">
         <v>736675005.11999989</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="12">
         <v>626864107.08999991</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="12">
         <v>902386437.90999985</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="12">
         <v>489647793.05000001</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="12">
         <v>755862671.3099997</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="12">
         <v>677972066.1400001</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="18">
         <v>805933353.87</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="12">
         <v>129093389.5</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="12">
         <v>143688180.96000001</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="12">
         <v>184099709</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="12">
         <v>123348230.23999999</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="12">
         <v>20457599.539999999</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="12">
         <v>15433908.33</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="12">
         <v>2304753.0099999998</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="12">
         <v>3593692</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="12">
         <v>367534.46</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="12">
         <v>45204453</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="12">
         <v>377043.8</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="18">
         <v>298836</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="12">
         <v>189002910</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="12">
         <v>203037759.27000001</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="12">
         <v>205582216.73000002</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="12">
         <v>159460905</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="12">
         <v>212852900</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="12">
         <v>113412700</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="12">
         <v>198213148</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="12">
         <v>143715309</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="12">
         <v>78169200</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="12">
         <v>133746602</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="12">
         <v>247356209</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="18">
         <v>87607831</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="17">
-        <v>0</v>
-      </c>
-      <c r="C58" s="17">
-        <v>0</v>
-      </c>
-      <c r="D58" s="17">
-        <v>0</v>
-      </c>
-      <c r="E58" s="17">
+      <c r="B58" s="12">
+        <v>0</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12">
         <v>3723.3</v>
       </c>
-      <c r="F58" s="17">
-        <v>0</v>
-      </c>
-      <c r="G58" s="17">
-        <v>0</v>
-      </c>
-      <c r="H58" s="17">
-        <v>0</v>
-      </c>
-      <c r="I58" s="17">
-        <v>0</v>
-      </c>
-      <c r="J58" s="17">
-        <v>0</v>
-      </c>
-      <c r="K58" s="17">
-        <v>0</v>
-      </c>
-      <c r="L58" s="17">
-        <v>0</v>
-      </c>
-      <c r="M58" s="17">
+      <c r="F58" s="12">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="12">
+        <v>0</v>
+      </c>
+      <c r="L58" s="12">
+        <v>0</v>
+      </c>
+      <c r="M58" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="12">
         <v>387488972.28999996</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="12">
         <v>303661560.54000008</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="12">
         <v>392565268.13000005</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="12">
         <v>317324469.31999987</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="12">
         <v>373399452.26999986</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="12">
         <v>318390780.91999996</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="12">
         <v>332649343.68000001</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="12">
         <v>449420417.13999987</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="12">
         <v>455998296.1099999</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="12">
         <v>333649221.36000001</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="12">
         <v>403823340.39999998</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="18">
         <v>391749723.11000001</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="12">
         <v>384326955</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="12">
         <v>80197391</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="12">
         <v>207670350</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="12">
         <v>329030515</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="12">
         <v>288993652</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="12">
         <v>268151870</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="12">
         <v>224042530</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="12">
         <v>264446700</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="12">
         <v>196031741</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="12">
         <v>343957869</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="12">
         <v>168232037</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="18">
         <v>172578064</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="25">
         <v>232521740.5</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="25">
         <v>231215132.69999999</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="25">
         <v>266036335</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="25">
         <v>232784626.80000001</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="25">
         <v>249439559.19999999</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="25">
         <v>499643771.10000002</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="25">
         <v>200629773.30000001</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="25">
         <v>334918394.10000002</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="25">
         <v>274999764.10000002</v>
       </c>
-      <c r="K61" s="17">
+      <c r="K61" s="25">
         <v>212994603.40000001</v>
       </c>
-      <c r="L61" s="17">
+      <c r="L61" s="25">
         <v>252392565.19999999</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M61" s="26">
         <v>253684546.59999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>